--- a/KẾ TOÁN - THÁI HẰNG 26/NHẬP HÀNG/Phiếu xuất kho bán hàng THL (có giá).xlsx
+++ b/KẾ TOÁN - THÁI HẰNG 26/NHẬP HÀNG/Phiếu xuất kho bán hàng THL (có giá).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15315" windowHeight="7965" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="15315" windowHeight="7905" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="NH đợt1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="NH đợt9" sheetId="9" r:id="rId9"/>
     <sheet name="NH đợt10" sheetId="10" r:id="rId10"/>
     <sheet name="NH đợt 11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="91">
   <si>
     <t>PHIẾU XUẤT KHO BÁN HÀNG</t>
   </si>
@@ -333,6 +334,30 @@
   </si>
   <si>
     <t>Ngày 24 tháng 03 năm 2020</t>
+  </si>
+  <si>
+    <t>Ngày    tháng       năm 20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diễn giải: Bán hàng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ PHÁT TRIỂN NANOMILK</t>
+    </r>
+  </si>
+  <si>
+    <t>Số lượng (hộp)</t>
+  </si>
+  <si>
+    <t>Địa chỉ: Số 10 ngách 165/53 Đường Cầu Giấy, tổ 28 - P.Dịch Vọng - Q.Cầu Giấy - HN</t>
   </si>
 </sst>
 </file>
@@ -529,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -676,6 +701,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -697,74 +746,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -778,7 +759,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4D4D4D"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1062,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,41 +1071,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1205,15 +1186,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1550,41 +1531,41 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54" t="s">
+      <c r="D36" s="62"/>
+      <c r="E36" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1610,7 +1591,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,41 +1618,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1752,15 +1733,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1884,41 +1865,41 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1943,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,41 +1952,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2086,15 +2067,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -2187,7 +2168,7 @@
         <v>1650000</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" ref="G20:G23" si="1">E21*F21</f>
+        <f t="shared" ref="G21:G23" si="1">E21*F21</f>
         <v>16500000</v>
       </c>
     </row>
@@ -2311,41 +2292,41 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53" t="s">
+      <c r="D32" s="61"/>
+      <c r="E32" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2362,6 +2343,623 @@
     <mergeCell ref="E31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55">
+        <v>1</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="55">
+        <v>24</v>
+      </c>
+      <c r="F15" s="57">
+        <f>G15/E15</f>
+        <v>68750</v>
+      </c>
+      <c r="G15" s="57">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55">
+        <v>2</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="55">
+        <v>12</v>
+      </c>
+      <c r="F16" s="57">
+        <f t="shared" ref="F16:F27" si="0">G16/E16</f>
+        <v>137500</v>
+      </c>
+      <c r="G16" s="57">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
+        <v>3</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="55">
+        <v>24</v>
+      </c>
+      <c r="F17" s="57">
+        <f t="shared" si="0"/>
+        <v>68750</v>
+      </c>
+      <c r="G17" s="57">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55">
+        <v>4</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="55">
+        <v>12</v>
+      </c>
+      <c r="F18" s="57">
+        <f t="shared" si="0"/>
+        <v>137500</v>
+      </c>
+      <c r="G18" s="57">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55">
+        <v>5</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="55">
+        <v>24</v>
+      </c>
+      <c r="F19" s="57">
+        <f t="shared" si="0"/>
+        <v>68750</v>
+      </c>
+      <c r="G19" s="57">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55">
+        <v>6</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="55">
+        <v>12</v>
+      </c>
+      <c r="F20" s="57">
+        <f t="shared" si="0"/>
+        <v>137500</v>
+      </c>
+      <c r="G20" s="57">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55">
+        <v>7</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="55">
+        <v>24</v>
+      </c>
+      <c r="F21" s="57">
+        <f t="shared" si="0"/>
+        <v>68750</v>
+      </c>
+      <c r="G21" s="59">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55">
+        <v>8</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="55">
+        <v>12</v>
+      </c>
+      <c r="F22" s="57">
+        <f t="shared" si="0"/>
+        <v>137500</v>
+      </c>
+      <c r="G22" s="59">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="55">
+        <v>9</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="55">
+        <v>24</v>
+      </c>
+      <c r="F23" s="57">
+        <f t="shared" si="0"/>
+        <v>68750</v>
+      </c>
+      <c r="G23" s="59">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="55">
+        <v>10</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="55">
+        <v>12</v>
+      </c>
+      <c r="F24" s="57">
+        <f t="shared" si="0"/>
+        <v>137500</v>
+      </c>
+      <c r="G24" s="59">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="55">
+        <v>11</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="55">
+        <v>10</v>
+      </c>
+      <c r="F25" s="57">
+        <f t="shared" si="0"/>
+        <v>165000</v>
+      </c>
+      <c r="G25" s="59">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="55">
+        <v>12</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="55">
+        <v>10</v>
+      </c>
+      <c r="F26" s="57">
+        <f t="shared" si="0"/>
+        <v>165000</v>
+      </c>
+      <c r="G26" s="59">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="55">
+        <v>13</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="55">
+        <v>10</v>
+      </c>
+      <c r="F27" s="57">
+        <f t="shared" si="0"/>
+        <v>165000</v>
+      </c>
+      <c r="G27" s="59">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55">
+        <v>14</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="55">
+        <v>50</v>
+      </c>
+      <c r="F28" s="57">
+        <v>135000</v>
+      </c>
+      <c r="G28" s="59">
+        <f>E28*F28</f>
+        <v>6750000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="5">
+        <f>SUM(E15:E28)</f>
+        <v>260</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="28">
+        <f>G29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="28">
+        <f>G30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+  </mergeCells>
+  <pageMargins left="0.42" right="0.42" top="0.39" bottom="0.41" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2396,41 +2994,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2511,15 +3109,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -2712,41 +3310,41 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54" t="s">
+      <c r="D30" s="62"/>
+      <c r="E30" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2771,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,41 +3397,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2914,15 +3512,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3235,41 +3833,41 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54" t="s">
+      <c r="B35" s="62"/>
+      <c r="C35" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54" t="s">
+      <c r="D35" s="62"/>
+      <c r="E35" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53" t="s">
+      <c r="B36" s="61"/>
+      <c r="C36" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53" t="s">
+      <c r="D36" s="61"/>
+      <c r="E36" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3294,7 +3892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3322,41 +3920,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3437,15 +4035,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3566,41 +4164,41 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3629,7 +4227,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,41 +4254,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3771,15 +4369,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4068,41 +4666,41 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54" t="s">
+      <c r="B34" s="62"/>
+      <c r="C34" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54" t="s">
+      <c r="D34" s="62"/>
+      <c r="E34" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53" t="s">
+      <c r="B35" s="61"/>
+      <c r="C35" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53" t="s">
+      <c r="D35" s="61"/>
+      <c r="E35" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4127,7 +4725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -4155,41 +4753,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4270,15 +4868,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4399,41 +4997,41 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4458,8 +5056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4486,41 +5084,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4601,15 +5199,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4946,41 +5544,41 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54" t="s">
+      <c r="D36" s="62"/>
+      <c r="E36" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5033,41 +5631,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -5148,15 +5746,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5397,41 +5995,41 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54" t="s">
+      <c r="B32" s="62"/>
+      <c r="C32" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54" t="s">
+      <c r="D32" s="62"/>
+      <c r="E32" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53" t="s">
+      <c r="B33" s="61"/>
+      <c r="C33" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5484,41 +6082,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -5599,15 +6197,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5824,41 +6422,41 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53" t="s">
+      <c r="D32" s="61"/>
+      <c r="E32" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="11">
